--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd160-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd160-Tnfrsf14.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.296259</v>
+        <v>1.731703</v>
       </c>
       <c r="H2">
-        <v>4.592518</v>
+        <v>3.463406</v>
       </c>
       <c r="I2">
-        <v>0.2429335573373846</v>
+        <v>0.1658600249298829</v>
       </c>
       <c r="J2">
-        <v>0.1825565432142737</v>
+        <v>0.1197595849687839</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N2">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O2">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P2">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q2">
-        <v>13.793159376164</v>
+        <v>6.733406750445</v>
       </c>
       <c r="R2">
-        <v>55.172637504656</v>
+        <v>26.93362700178</v>
       </c>
       <c r="S2">
-        <v>0.02848460670252884</v>
+        <v>0.01480357925007914</v>
       </c>
       <c r="T2">
-        <v>0.01500610331752249</v>
+        <v>0.007475995313395276</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.296259</v>
+        <v>1.731703</v>
       </c>
       <c r="H3">
-        <v>4.592518</v>
+        <v>3.463406</v>
       </c>
       <c r="I3">
-        <v>0.2429335573373846</v>
+        <v>0.1658600249298829</v>
       </c>
       <c r="J3">
-        <v>0.1825565432142737</v>
+        <v>0.1197595849687839</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.744669</v>
       </c>
       <c r="O3">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P3">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q3">
-        <v>4.397082631090333</v>
+        <v>3.316020180435666</v>
       </c>
       <c r="R3">
-        <v>26.382495786542</v>
+        <v>19.896121082614</v>
       </c>
       <c r="S3">
-        <v>0.009080527960952319</v>
+        <v>0.007290361232476697</v>
       </c>
       <c r="T3">
-        <v>0.007175630447493855</v>
+        <v>0.005522587357378084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.296259</v>
+        <v>1.731703</v>
       </c>
       <c r="H4">
-        <v>4.592518</v>
+        <v>3.463406</v>
       </c>
       <c r="I4">
-        <v>0.2429335573373846</v>
+        <v>0.1658600249298829</v>
       </c>
       <c r="J4">
-        <v>0.1825565432142737</v>
+        <v>0.1197595849687839</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N4">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O4">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P4">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q4">
-        <v>32.74705216523533</v>
+        <v>30.553525270187</v>
       </c>
       <c r="R4">
-        <v>196.482312991412</v>
+        <v>183.321151621122</v>
       </c>
       <c r="S4">
-        <v>0.06762677615440851</v>
+        <v>0.06717276253608429</v>
       </c>
       <c r="T4">
-        <v>0.05344014754716234</v>
+        <v>0.0508846458100559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.296259</v>
+        <v>1.731703</v>
       </c>
       <c r="H5">
-        <v>4.592518</v>
+        <v>3.463406</v>
       </c>
       <c r="I5">
-        <v>0.2429335573373846</v>
+        <v>0.1658600249298829</v>
       </c>
       <c r="J5">
-        <v>0.1825565432142737</v>
+        <v>0.1197595849687839</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N5">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O5">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P5">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q5">
-        <v>3.514500176047</v>
+        <v>3.8630510158945</v>
       </c>
       <c r="R5">
-        <v>14.058000704188</v>
+        <v>15.452204063578</v>
       </c>
       <c r="S5">
-        <v>0.007257884328058016</v>
+        <v>0.008493023514005531</v>
       </c>
       <c r="T5">
-        <v>0.003823558570805076</v>
+        <v>0.00428908461356883</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.296259</v>
+        <v>1.731703</v>
       </c>
       <c r="H6">
-        <v>4.592518</v>
+        <v>3.463406</v>
       </c>
       <c r="I6">
-        <v>0.2429335573373846</v>
+        <v>0.1658600249298829</v>
       </c>
       <c r="J6">
-        <v>0.1825565432142737</v>
+        <v>0.1197595849687839</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N6">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O6">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P6">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q6">
-        <v>9.154837897890999</v>
+        <v>18.52201706105133</v>
       </c>
       <c r="R6">
-        <v>54.929027387346</v>
+        <v>111.132102366308</v>
       </c>
       <c r="S6">
-        <v>0.01890589021957303</v>
+        <v>0.04072116205017177</v>
       </c>
       <c r="T6">
-        <v>0.01493984513674875</v>
+        <v>0.03084705511082392</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.296259</v>
+        <v>1.731703</v>
       </c>
       <c r="H7">
-        <v>4.592518</v>
+        <v>3.463406</v>
       </c>
       <c r="I7">
-        <v>0.2429335573373846</v>
+        <v>0.1658600249298829</v>
       </c>
       <c r="J7">
-        <v>0.1825565432142737</v>
+        <v>0.1197595849687839</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.52939333333333</v>
+        <v>7.191416666666666</v>
       </c>
       <c r="N7">
-        <v>70.58817999999999</v>
+        <v>21.57425</v>
       </c>
       <c r="O7">
-        <v>0.4592937805496555</v>
+        <v>0.1650737503424347</v>
       </c>
       <c r="P7">
-        <v>0.4829805420397951</v>
+        <v>0.1731821028685757</v>
       </c>
       <c r="Q7">
-        <v>54.02958120620666</v>
+        <v>12.45339781591667</v>
       </c>
       <c r="R7">
-        <v>324.17748723724</v>
+        <v>74.7203868955</v>
       </c>
       <c r="S7">
-        <v>0.1115778719718639</v>
+        <v>0.02737913634706549</v>
       </c>
       <c r="T7">
-        <v>0.08817125819454119</v>
+        <v>0.02074021676356185</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2064423333333334</v>
+        <v>0.2064423333333333</v>
       </c>
       <c r="H8">
-        <v>0.6193270000000001</v>
+        <v>0.619327</v>
       </c>
       <c r="I8">
-        <v>0.02184064185342193</v>
+        <v>0.01977275003464789</v>
       </c>
       <c r="J8">
-        <v>0.02461878129585262</v>
+        <v>0.02141543454043852</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N8">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O8">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P8">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q8">
-        <v>1.240056982097334</v>
+        <v>0.8027128213349999</v>
       </c>
       <c r="R8">
-        <v>7.440341892584001</v>
+        <v>4.81627692801</v>
       </c>
       <c r="S8">
-        <v>0.00256087343446552</v>
+        <v>0.001764786133691085</v>
       </c>
       <c r="T8">
-        <v>0.002023657816764409</v>
+        <v>0.001336859077295343</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2064423333333334</v>
+        <v>0.2064423333333333</v>
       </c>
       <c r="H9">
-        <v>0.6193270000000001</v>
+        <v>0.619327</v>
       </c>
       <c r="I9">
-        <v>0.02184064185342193</v>
+        <v>0.01977275003464789</v>
       </c>
       <c r="J9">
-        <v>0.02461878129585262</v>
+        <v>0.02141543454043852</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>5.744669</v>
       </c>
       <c r="O9">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P9">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q9">
-        <v>0.3953142908625556</v>
+        <v>0.3953142908625555</v>
       </c>
       <c r="R9">
-        <v>3.557828617763001</v>
+        <v>3.557828617763</v>
       </c>
       <c r="S9">
-        <v>0.0008163736669764049</v>
+        <v>0.0008691093008878339</v>
       </c>
       <c r="T9">
-        <v>0.0009676743081148571</v>
+        <v>0.0009875502497492053</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2064423333333334</v>
+        <v>0.2064423333333333</v>
       </c>
       <c r="H10">
-        <v>0.6193270000000001</v>
+        <v>0.619327</v>
       </c>
       <c r="I10">
-        <v>0.02184064185342193</v>
+        <v>0.01977275003464789</v>
       </c>
       <c r="J10">
-        <v>0.02461878129585262</v>
+        <v>0.02141543454043852</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N10">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O10">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P10">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q10">
-        <v>2.944083336757556</v>
+        <v>3.642391939227666</v>
       </c>
       <c r="R10">
-        <v>26.496750030818</v>
+        <v>32.781527453049</v>
       </c>
       <c r="S10">
-        <v>0.006079901903542729</v>
+        <v>0.008007898487439909</v>
       </c>
       <c r="T10">
-        <v>0.007206705833257793</v>
+        <v>0.009099203222378343</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2064423333333334</v>
+        <v>0.2064423333333333</v>
       </c>
       <c r="H11">
-        <v>0.6193270000000001</v>
+        <v>0.619327</v>
       </c>
       <c r="I11">
-        <v>0.02184064185342193</v>
+        <v>0.01977275003464789</v>
       </c>
       <c r="J11">
-        <v>0.02461878129585262</v>
+        <v>0.02141543454043852</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N11">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O11">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P11">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q11">
-        <v>0.3159668037636668</v>
+        <v>0.4605277380168333</v>
       </c>
       <c r="R11">
-        <v>1.895800822582</v>
+        <v>2.763166428101</v>
       </c>
       <c r="S11">
-        <v>0.0006525111390952541</v>
+        <v>0.001012482851439402</v>
       </c>
       <c r="T11">
-        <v>0.0005156284763567602</v>
+        <v>0.0007669750258756098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2064423333333334</v>
+        <v>0.2064423333333333</v>
       </c>
       <c r="H12">
-        <v>0.6193270000000001</v>
+        <v>0.619327</v>
       </c>
       <c r="I12">
-        <v>0.02184064185342193</v>
+        <v>0.01977275003464789</v>
       </c>
       <c r="J12">
-        <v>0.02461878129585262</v>
+        <v>0.02141543454043852</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N12">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O12">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P12">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q12">
-        <v>0.8230544102076668</v>
+        <v>2.208074028931778</v>
       </c>
       <c r="R12">
-        <v>7.407489691869001</v>
+        <v>19.872666260386</v>
       </c>
       <c r="S12">
-        <v>0.001699710742852833</v>
+        <v>0.004854511258386826</v>
       </c>
       <c r="T12">
-        <v>0.002014722526728734</v>
+        <v>0.005516076977582543</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2064423333333334</v>
+        <v>0.2064423333333333</v>
       </c>
       <c r="H13">
-        <v>0.6193270000000001</v>
+        <v>0.619327</v>
       </c>
       <c r="I13">
-        <v>0.02184064185342193</v>
+        <v>0.01977275003464789</v>
       </c>
       <c r="J13">
-        <v>0.02461878129585262</v>
+        <v>0.02141543454043852</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.52939333333333</v>
+        <v>7.191416666666666</v>
       </c>
       <c r="N13">
-        <v>70.58817999999999</v>
+        <v>21.57425</v>
       </c>
       <c r="O13">
-        <v>0.4592937805496555</v>
+        <v>0.1650737503424347</v>
       </c>
       <c r="P13">
-        <v>0.4829805420397951</v>
+        <v>0.1731821028685757</v>
       </c>
       <c r="Q13">
-        <v>4.857462861651111</v>
+        <v>1.484612836638889</v>
       </c>
       <c r="R13">
-        <v>43.71716575486</v>
+        <v>13.36151552975</v>
       </c>
       <c r="S13">
-        <v>0.0100312709664892</v>
+        <v>0.003263962002802833</v>
       </c>
       <c r="T13">
-        <v>0.01189039233463007</v>
+        <v>0.003708769987557472</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.229286333333333</v>
+        <v>2.497294666666666</v>
       </c>
       <c r="H14">
-        <v>6.687859</v>
+        <v>7.491884</v>
       </c>
       <c r="I14">
-        <v>0.2358481596720061</v>
+        <v>0.2391872946288116</v>
       </c>
       <c r="J14">
-        <v>0.265848151394174</v>
+        <v>0.2590585448180988</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N14">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O14">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P14">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q14">
-        <v>13.39086822992133</v>
+        <v>9.710268311819998</v>
       </c>
       <c r="R14">
-        <v>80.34520937952799</v>
+        <v>58.26160987092</v>
       </c>
       <c r="S14">
-        <v>0.02765382495281351</v>
+        <v>0.02134829096490562</v>
       </c>
       <c r="T14">
-        <v>0.0218526531909124</v>
+        <v>0.01617173662934725</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.229286333333333</v>
+        <v>2.497294666666666</v>
       </c>
       <c r="H15">
-        <v>6.687859</v>
+        <v>7.491884</v>
       </c>
       <c r="I15">
-        <v>0.2358481596720061</v>
+        <v>0.2391872946288116</v>
       </c>
       <c r="J15">
-        <v>0.265848151394174</v>
+        <v>0.2590585448180988</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.744669</v>
       </c>
       <c r="O15">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P15">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q15">
-        <v>4.268837363741222</v>
+        <v>4.782043751821777</v>
       </c>
       <c r="R15">
-        <v>38.419536273671</v>
+        <v>43.038393766396</v>
       </c>
       <c r="S15">
-        <v>0.008815685374690834</v>
+        <v>0.01051345422623711</v>
       </c>
       <c r="T15">
-        <v>0.01044951912413752</v>
+        <v>0.01194621244559348</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.229286333333333</v>
+        <v>2.497294666666666</v>
       </c>
       <c r="H16">
-        <v>6.687859</v>
+        <v>7.491884</v>
       </c>
       <c r="I16">
-        <v>0.2358481596720061</v>
+        <v>0.2391872946288116</v>
       </c>
       <c r="J16">
-        <v>0.265848151394174</v>
+        <v>0.2590585448180988</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N16">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O16">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P16">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q16">
-        <v>31.79195197445621</v>
+        <v>44.06134060234533</v>
       </c>
       <c r="R16">
-        <v>286.1275677701059</v>
+        <v>396.552065421108</v>
       </c>
       <c r="S16">
-        <v>0.06565437428809878</v>
+        <v>0.09687006468582068</v>
       </c>
       <c r="T16">
-        <v>0.07782226912003776</v>
+        <v>0.1100713759201274</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.229286333333333</v>
+        <v>2.497294666666666</v>
       </c>
       <c r="H17">
-        <v>6.687859</v>
+        <v>7.491884</v>
       </c>
       <c r="I17">
-        <v>0.2358481596720061</v>
+        <v>0.2391872946288116</v>
       </c>
       <c r="J17">
-        <v>0.265848151394174</v>
+        <v>0.2590585448180988</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N17">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O17">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P17">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q17">
-        <v>3.411996299615667</v>
+        <v>5.570918742448666</v>
       </c>
       <c r="R17">
-        <v>20.471977797694</v>
+        <v>33.425512454692</v>
       </c>
       <c r="S17">
-        <v>0.007046200947477577</v>
+        <v>0.01224781750993132</v>
       </c>
       <c r="T17">
-        <v>0.005568061050557856</v>
+        <v>0.009277954819920765</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.229286333333333</v>
+        <v>2.497294666666666</v>
       </c>
       <c r="H18">
-        <v>6.687859</v>
+        <v>7.491884</v>
       </c>
       <c r="I18">
-        <v>0.2358481596720061</v>
+        <v>0.2391872946288116</v>
       </c>
       <c r="J18">
-        <v>0.265848151394174</v>
+        <v>0.2590585448180988</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N18">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O18">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P18">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q18">
-        <v>8.887827988763664</v>
+        <v>26.71066252265689</v>
       </c>
       <c r="R18">
-        <v>79.99045189887299</v>
+        <v>240.395962703912</v>
       </c>
       <c r="S18">
-        <v>0.01835448121749092</v>
+        <v>0.05872412348327802</v>
       </c>
       <c r="T18">
-        <v>0.0217561646478928</v>
+        <v>0.06672696144543837</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.229286333333333</v>
+        <v>2.497294666666666</v>
       </c>
       <c r="H19">
-        <v>6.687859</v>
+        <v>7.491884</v>
       </c>
       <c r="I19">
-        <v>0.2358481596720061</v>
+        <v>0.2391872946288116</v>
       </c>
       <c r="J19">
-        <v>0.265848151394174</v>
+        <v>0.2590585448180988</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.52939333333333</v>
+        <v>7.191416666666666</v>
       </c>
       <c r="N19">
-        <v>70.58817999999999</v>
+        <v>21.57425</v>
       </c>
       <c r="O19">
-        <v>0.4592937805496555</v>
+        <v>0.1650737503424347</v>
       </c>
       <c r="P19">
-        <v>0.4829805420397951</v>
+        <v>0.1731821028685757</v>
       </c>
       <c r="Q19">
-        <v>52.45375498962444</v>
+        <v>17.95908648744444</v>
       </c>
       <c r="R19">
-        <v>472.0837949066199</v>
+        <v>161.631778387</v>
       </c>
       <c r="S19">
-        <v>0.1083235928914345</v>
+        <v>0.03948354375863881</v>
       </c>
       <c r="T19">
-        <v>0.1283994842606357</v>
+        <v>0.04486430355767151</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.903683</v>
+        <v>0.67089</v>
       </c>
       <c r="H20">
-        <v>1.807366</v>
+        <v>1.34178</v>
       </c>
       <c r="I20">
-        <v>0.09560547215942092</v>
+        <v>0.06425688014931495</v>
       </c>
       <c r="J20">
-        <v>0.07184435407395441</v>
+        <v>0.04639681744485481</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N20">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O20">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P20">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q20">
-        <v>5.428239429667999</v>
+        <v>2.60863165035</v>
       </c>
       <c r="R20">
-        <v>21.712957718672</v>
+        <v>10.4345266014</v>
       </c>
       <c r="S20">
-        <v>0.01120999627601301</v>
+        <v>0.00573514816517936</v>
       </c>
       <c r="T20">
-        <v>0.005905588378440181</v>
+        <v>0.002896322577141552</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.903683</v>
+        <v>0.67089</v>
       </c>
       <c r="H21">
-        <v>1.807366</v>
+        <v>1.34178</v>
       </c>
       <c r="I21">
-        <v>0.09560547215942092</v>
+        <v>0.06425688014931495</v>
       </c>
       <c r="J21">
-        <v>0.07184435407395441</v>
+        <v>0.04639681744485481</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.744669</v>
       </c>
       <c r="O21">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P21">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q21">
-        <v>1.730453238642333</v>
+        <v>1.28468032847</v>
       </c>
       <c r="R21">
-        <v>10.382719431854</v>
+        <v>7.708081970819999</v>
       </c>
       <c r="S21">
-        <v>0.003573603304042477</v>
+        <v>0.00282440490503065</v>
       </c>
       <c r="T21">
-        <v>0.002823938958838088</v>
+        <v>0.002139540459415606</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.903683</v>
+        <v>0.67089</v>
       </c>
       <c r="H22">
-        <v>1.807366</v>
+        <v>1.34178</v>
       </c>
       <c r="I22">
-        <v>0.09560547215942092</v>
+        <v>0.06425688014931495</v>
       </c>
       <c r="J22">
-        <v>0.07184435407395441</v>
+        <v>0.04639681744485481</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N22">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O22">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P22">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q22">
-        <v>12.88746362750733</v>
+        <v>11.83693425981</v>
       </c>
       <c r="R22">
-        <v>77.32478176504399</v>
+        <v>71.02160555886</v>
       </c>
       <c r="S22">
-        <v>0.02661423121500857</v>
+        <v>0.02602382432659272</v>
       </c>
       <c r="T22">
-        <v>0.02103114363661168</v>
+        <v>0.01971354211865915</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.903683</v>
+        <v>0.67089</v>
       </c>
       <c r="H23">
-        <v>1.807366</v>
+        <v>1.34178</v>
       </c>
       <c r="I23">
-        <v>0.09560547215942092</v>
+        <v>0.06425688014931495</v>
       </c>
       <c r="J23">
-        <v>0.07184435407395441</v>
+        <v>0.04639681744485481</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N23">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O23">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P23">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q23">
-        <v>1.383116653039</v>
+        <v>1.496609000535</v>
       </c>
       <c r="R23">
-        <v>5.532466612156001</v>
+        <v>5.98643600214</v>
       </c>
       <c r="S23">
-        <v>0.002856309625017235</v>
+        <v>0.003290335897848056</v>
       </c>
       <c r="T23">
-        <v>0.001504745274788621</v>
+        <v>0.001661661368258409</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.903683</v>
+        <v>0.67089</v>
       </c>
       <c r="H24">
-        <v>1.807366</v>
+        <v>1.34178</v>
       </c>
       <c r="I24">
-        <v>0.09560547215942092</v>
+        <v>0.06425688014931495</v>
       </c>
       <c r="J24">
-        <v>0.07184435407395441</v>
+        <v>0.04639681744485481</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N24">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O24">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P24">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q24">
-        <v>3.602847664867</v>
+        <v>7.17573165034</v>
       </c>
       <c r="R24">
-        <v>21.617085989202</v>
+        <v>43.05438990204</v>
       </c>
       <c r="S24">
-        <v>0.007440332990004357</v>
+        <v>0.0157760426631124</v>
       </c>
       <c r="T24">
-        <v>0.005879512752138377</v>
+        <v>0.01195065250987072</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.903683</v>
+        <v>0.67089</v>
       </c>
       <c r="H25">
-        <v>1.807366</v>
+        <v>1.34178</v>
       </c>
       <c r="I25">
-        <v>0.09560547215942092</v>
+        <v>0.06425688014931495</v>
       </c>
       <c r="J25">
-        <v>0.07184435407395441</v>
+        <v>0.04639681744485481</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.52939333333333</v>
+        <v>7.191416666666666</v>
       </c>
       <c r="N25">
-        <v>70.58817999999999</v>
+        <v>21.57425</v>
       </c>
       <c r="O25">
-        <v>0.4592937805496555</v>
+        <v>0.1650737503424347</v>
       </c>
       <c r="P25">
-        <v>0.4829805420397951</v>
+        <v>0.1731821028685757</v>
       </c>
       <c r="Q25">
-        <v>21.26311275564667</v>
+        <v>4.824649527499999</v>
       </c>
       <c r="R25">
-        <v>127.57867653388</v>
+        <v>28.947897165</v>
       </c>
       <c r="S25">
-        <v>0.04391099874933527</v>
+        <v>0.01060712419155176</v>
       </c>
       <c r="T25">
-        <v>0.03469942507313747</v>
+        <v>0.008035098411509373</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.288047333333333</v>
+        <v>3.601027666666667</v>
       </c>
       <c r="H26">
-        <v>3.864142</v>
+        <v>10.803083</v>
       </c>
       <c r="I26">
-        <v>0.1362694368124844</v>
+        <v>0.3449012553345068</v>
       </c>
       <c r="J26">
-        <v>0.1536029703115132</v>
+        <v>0.3735550312216716</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N26">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O26">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P26">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q26">
-        <v>7.737037569677333</v>
+        <v>14.001929891715</v>
       </c>
       <c r="R26">
-        <v>46.422225418064</v>
+        <v>84.01157935028999</v>
       </c>
       <c r="S26">
-        <v>0.0159779544486232</v>
+        <v>0.03078362654867928</v>
       </c>
       <c r="T26">
-        <v>0.01262612668814319</v>
+        <v>0.02331918287322369</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.288047333333333</v>
+        <v>3.601027666666667</v>
       </c>
       <c r="H27">
-        <v>3.864142</v>
+        <v>10.803083</v>
       </c>
       <c r="I27">
-        <v>0.1362694368124844</v>
+        <v>0.3449012553345068</v>
       </c>
       <c r="J27">
-        <v>0.1536029703115132</v>
+        <v>0.3735550312216716</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>5.744669</v>
       </c>
       <c r="O27">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P27">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q27">
-        <v>2.466468528777555</v>
+        <v>6.895570668280778</v>
       </c>
       <c r="R27">
-        <v>22.198216758998</v>
+        <v>62.060136014527</v>
       </c>
       <c r="S27">
-        <v>0.005093567330759903</v>
+        <v>0.01516010106706674</v>
       </c>
       <c r="T27">
-        <v>0.006037571325499388</v>
+        <v>0.01722609754574142</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.288047333333333</v>
+        <v>3.601027666666667</v>
       </c>
       <c r="H28">
-        <v>3.864142</v>
+        <v>10.803083</v>
       </c>
       <c r="I28">
-        <v>0.1362694368124844</v>
+        <v>0.3449012553345068</v>
       </c>
       <c r="J28">
-        <v>0.1536029703115132</v>
+        <v>0.3735550312216716</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N28">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O28">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P28">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q28">
-        <v>18.36890055344755</v>
+        <v>63.53519616940233</v>
       </c>
       <c r="R28">
-        <v>165.320104981028</v>
+        <v>571.816765524621</v>
       </c>
       <c r="S28">
-        <v>0.03793408700308464</v>
+        <v>0.1396838697737832</v>
       </c>
       <c r="T28">
-        <v>0.04496450936570896</v>
+        <v>0.1587197839674691</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.288047333333333</v>
+        <v>3.601027666666667</v>
       </c>
       <c r="H29">
-        <v>3.864142</v>
+        <v>10.803083</v>
       </c>
       <c r="I29">
-        <v>0.1362694368124844</v>
+        <v>0.3449012553345068</v>
       </c>
       <c r="J29">
-        <v>0.1536029703115132</v>
+        <v>0.3735550312216716</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N29">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O29">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P29">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q29">
-        <v>1.971398949228667</v>
+        <v>8.033105899788167</v>
       </c>
       <c r="R29">
-        <v>11.828393695372</v>
+        <v>48.198635398729</v>
       </c>
       <c r="S29">
-        <v>0.004071186462152971</v>
+        <v>0.0176610034443461</v>
       </c>
       <c r="T29">
-        <v>0.003217139979180891</v>
+        <v>0.01337854616940867</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.288047333333333</v>
+        <v>3.601027666666667</v>
       </c>
       <c r="H30">
-        <v>3.864142</v>
+        <v>10.803083</v>
       </c>
       <c r="I30">
-        <v>0.1362694368124844</v>
+        <v>0.3449012553345068</v>
       </c>
       <c r="J30">
-        <v>0.1536029703115132</v>
+        <v>0.3735550312216716</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N30">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O30">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P30">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q30">
-        <v>5.135250222852666</v>
+        <v>38.51601335755489</v>
       </c>
       <c r="R30">
-        <v>46.21725200567401</v>
+        <v>346.644120217994</v>
       </c>
       <c r="S30">
-        <v>0.01060493676088533</v>
+        <v>0.08467851078475075</v>
       </c>
       <c r="T30">
-        <v>0.01257037709300357</v>
+        <v>0.09621837482172318</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.288047333333333</v>
+        <v>3.601027666666667</v>
       </c>
       <c r="H31">
-        <v>3.864142</v>
+        <v>10.803083</v>
       </c>
       <c r="I31">
-        <v>0.1362694368124844</v>
+        <v>0.3449012553345068</v>
       </c>
       <c r="J31">
-        <v>0.1536029703115132</v>
+        <v>0.3735550312216716</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>23.52939333333333</v>
+        <v>7.191416666666666</v>
       </c>
       <c r="N31">
-        <v>70.58817999999999</v>
+        <v>21.57425</v>
       </c>
       <c r="O31">
-        <v>0.4592937805496555</v>
+        <v>0.1650737503424347</v>
       </c>
       <c r="P31">
-        <v>0.4829805420397951</v>
+        <v>0.1731821028685757</v>
       </c>
       <c r="Q31">
-        <v>30.30697233795111</v>
+        <v>25.89649037919444</v>
       </c>
       <c r="R31">
-        <v>272.76275104156</v>
+        <v>233.06841341275</v>
       </c>
       <c r="S31">
-        <v>0.06258770480697837</v>
+        <v>0.0569341437158807</v>
       </c>
       <c r="T31">
-        <v>0.07418724585997721</v>
+        <v>0.06469304584410551</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.528492</v>
+        <v>1.733392</v>
       </c>
       <c r="H32">
-        <v>7.585476</v>
+        <v>5.200176000000001</v>
       </c>
       <c r="I32">
-        <v>0.267502732165282</v>
+        <v>0.1660217949228359</v>
       </c>
       <c r="J32">
-        <v>0.3015291997102321</v>
+        <v>0.1798145870061525</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.006796</v>
+        <v>3.888315</v>
       </c>
       <c r="N32">
-        <v>12.013592</v>
+        <v>7.77663</v>
       </c>
       <c r="O32">
-        <v>0.1172526637107182</v>
+        <v>0.0892534488424039</v>
       </c>
       <c r="P32">
-        <v>0.08219975604987897</v>
+        <v>0.06242502690155401</v>
       </c>
       <c r="Q32">
-        <v>15.188135631632</v>
+        <v>6.739974114480001</v>
       </c>
       <c r="R32">
-        <v>91.12881378979199</v>
+        <v>40.43984468688001</v>
       </c>
       <c r="S32">
-        <v>0.03136540789627414</v>
+        <v>0.0148180177798694</v>
       </c>
       <c r="T32">
-        <v>0.02478562665809632</v>
+        <v>0.0112249304311509</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.528492</v>
+        <v>1.733392</v>
       </c>
       <c r="H33">
-        <v>7.585476</v>
+        <v>5.200176000000001</v>
       </c>
       <c r="I33">
-        <v>0.267502732165282</v>
+        <v>0.1660217949228359</v>
       </c>
       <c r="J33">
-        <v>0.3015291997102321</v>
+        <v>0.1798145870061525</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>5.744669</v>
       </c>
       <c r="O33">
-        <v>0.03737864813934017</v>
+        <v>0.04395490254845124</v>
       </c>
       <c r="P33">
-        <v>0.0393063448789756</v>
+        <v>0.04611394869828234</v>
       </c>
       <c r="Q33">
-        <v>4.841783203049333</v>
+        <v>3.319254429082667</v>
       </c>
       <c r="R33">
-        <v>43.576048827444</v>
+        <v>29.87328986174401</v>
       </c>
       <c r="S33">
-        <v>0.009998890501918229</v>
+        <v>0.007297471816752207</v>
       </c>
       <c r="T33">
-        <v>0.01185201071489189</v>
+        <v>0.008291960640404545</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.528492</v>
+        <v>1.733392</v>
       </c>
       <c r="H34">
-        <v>7.585476</v>
+        <v>5.200176000000001</v>
       </c>
       <c r="I34">
-        <v>0.267502732165282</v>
+        <v>0.1660217949228359</v>
       </c>
       <c r="J34">
-        <v>0.3015291997102321</v>
+        <v>0.1798145870061525</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>14.26104466666667</v>
+        <v>17.643629</v>
       </c>
       <c r="N34">
-        <v>42.783134</v>
+        <v>52.93088700000001</v>
       </c>
       <c r="O34">
-        <v>0.2783756056413766</v>
+        <v>0.4049966986588931</v>
       </c>
       <c r="P34">
-        <v>0.2927320303410739</v>
+        <v>0.424889964534524</v>
       </c>
       <c r="Q34">
-        <v>36.05893735130933</v>
+        <v>30.583325359568</v>
       </c>
       <c r="R34">
-        <v>324.530436161784</v>
+        <v>275.2499282361121</v>
       </c>
       <c r="S34">
-        <v>0.07446623507723332</v>
+        <v>0.0672382788491723</v>
       </c>
       <c r="T34">
-        <v>0.08826725483829541</v>
+        <v>0.07640141349583425</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.528492</v>
+        <v>1.733392</v>
       </c>
       <c r="H35">
-        <v>7.585476</v>
+        <v>5.200176000000001</v>
       </c>
       <c r="I35">
-        <v>0.267502732165282</v>
+        <v>0.1660217949228359</v>
       </c>
       <c r="J35">
-        <v>0.3015291997102321</v>
+        <v>0.1798145870061525</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.530533</v>
+        <v>2.2307815</v>
       </c>
       <c r="N35">
-        <v>3.061066</v>
+        <v>4.461563</v>
       </c>
       <c r="O35">
-        <v>0.02987600563547634</v>
+        <v>0.05120597032103393</v>
       </c>
       <c r="P35">
-        <v>0.02094451671511558</v>
+        <v>0.03581412389402325</v>
       </c>
       <c r="Q35">
-        <v>3.869940446236</v>
+        <v>3.866818805848001</v>
       </c>
       <c r="R35">
-        <v>23.219642677416</v>
+        <v>23.200912835088</v>
       </c>
       <c r="S35">
-        <v>0.007991913133675282</v>
+        <v>0.008501307103463513</v>
       </c>
       <c r="T35">
-        <v>0.006315383363426382</v>
+        <v>0.00643990189699097</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.528492</v>
+        <v>1.733392</v>
       </c>
       <c r="H36">
-        <v>7.585476</v>
+        <v>5.200176000000001</v>
       </c>
       <c r="I36">
-        <v>0.267502732165282</v>
+        <v>0.1660217949228359</v>
       </c>
       <c r="J36">
-        <v>0.3015291997102321</v>
+        <v>0.1798145870061525</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.986849</v>
+        <v>10.69583933333333</v>
       </c>
       <c r="N36">
-        <v>11.960547</v>
+        <v>32.087518</v>
       </c>
       <c r="O36">
-        <v>0.0778232963234332</v>
+        <v>0.2455152292867831</v>
       </c>
       <c r="P36">
-        <v>0.0818368099751608</v>
+        <v>0.2575748331030406</v>
       </c>
       <c r="Q36">
-        <v>10.080715801708</v>
+        <v>18.54008233368534</v>
       </c>
       <c r="R36">
-        <v>90.726442215372</v>
+        <v>166.860741003168</v>
       </c>
       <c r="S36">
-        <v>0.02081794439262672</v>
+        <v>0.04076087904708333</v>
       </c>
       <c r="T36">
-        <v>0.02467618781864857</v>
+        <v>0.04631571223760192</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.528492</v>
+        <v>1.733392</v>
       </c>
       <c r="H37">
-        <v>7.585476</v>
+        <v>5.200176000000001</v>
       </c>
       <c r="I37">
-        <v>0.267502732165282</v>
+        <v>0.1660217949228359</v>
       </c>
       <c r="J37">
-        <v>0.3015291997102321</v>
+        <v>0.1798145870061525</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>23.52939333333333</v>
+        <v>7.191416666666666</v>
       </c>
       <c r="N37">
-        <v>70.58817999999999</v>
+        <v>21.57425</v>
       </c>
       <c r="O37">
-        <v>0.4592937805496555</v>
+        <v>0.1650737503424347</v>
       </c>
       <c r="P37">
-        <v>0.4829805420397951</v>
+        <v>0.1731821028685757</v>
       </c>
       <c r="Q37">
-        <v>59.49388280818666</v>
+        <v>12.46554411866667</v>
       </c>
       <c r="R37">
-        <v>535.44494527368</v>
+        <v>112.189897068</v>
       </c>
       <c r="S37">
-        <v>0.1228623411635543</v>
+        <v>0.0274058403264951</v>
       </c>
       <c r="T37">
-        <v>0.1456327363168735</v>
+        <v>0.03114066830416996</v>
       </c>
     </row>
   </sheetData>
